--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/159.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/159.xlsx
@@ -479,13 +479,13 @@
         <v>-15.31417664257184</v>
       </c>
       <c r="E2" t="n">
-        <v>-11.2823470569079</v>
+        <v>-11.28522736353308</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5789781947305599</v>
+        <v>0.6170898883028244</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.232315359929232</v>
+        <v>-5.205502323709377</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-14.60066134074491</v>
       </c>
       <c r="E3" t="n">
-        <v>-11.47815553820875</v>
+        <v>-11.47519667776652</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6500170299497655</v>
+        <v>0.6912970608097277</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.115479649369669</v>
+        <v>-5.09068282778744</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-13.7459092163373</v>
       </c>
       <c r="E4" t="n">
-        <v>-12.02576728916963</v>
+        <v>-12.02041253730736</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6661336547479303</v>
+        <v>0.7040620560804107</v>
       </c>
       <c r="G4" t="n">
-        <v>-4.810782485334178</v>
+        <v>-4.784362218199575</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-12.82582799877363</v>
       </c>
       <c r="E5" t="n">
-        <v>-12.71342740362845</v>
+        <v>-12.70816429788607</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6777988965799082</v>
+        <v>0.7173769280704461</v>
       </c>
       <c r="G5" t="n">
-        <v>-4.896497792038958</v>
+        <v>-4.870391740172557</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-11.85553940053281</v>
       </c>
       <c r="E6" t="n">
-        <v>-13.31576498046774</v>
+        <v>-13.30872132153889</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7122709299621729</v>
+        <v>0.7498851160264519</v>
       </c>
       <c r="G6" t="n">
-        <v>-4.196832035874276</v>
+        <v>-4.165174847602982</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-10.85636213877871</v>
       </c>
       <c r="E7" t="n">
-        <v>-13.60074513642359</v>
+        <v>-13.58871331011205</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8227045044321323</v>
+        <v>0.8647177042512313</v>
       </c>
       <c r="G7" t="n">
-        <v>-4.211652522691109</v>
+        <v>-4.177651812211146</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-9.856859613936171</v>
       </c>
       <c r="E8" t="n">
-        <v>-14.17882267609716</v>
+        <v>-14.16541615798724</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9064690580134958</v>
+        <v>0.9454317512704725</v>
       </c>
       <c r="G8" t="n">
-        <v>-3.796744353333968</v>
+        <v>-3.764550380646164</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-8.8708895773657</v>
       </c>
       <c r="E9" t="n">
-        <v>-14.97020001366814</v>
+        <v>-14.95700297240368</v>
       </c>
       <c r="F9" t="n">
-        <v>1.128566883420537</v>
+        <v>1.168747160841794</v>
       </c>
       <c r="G9" t="n">
-        <v>-3.431639303986754</v>
+        <v>-3.397690962718158</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-7.929686270194997</v>
       </c>
       <c r="E10" t="n">
-        <v>-15.56745777700484</v>
+        <v>-15.55213978268002</v>
       </c>
       <c r="F10" t="n">
-        <v>1.172530836363053</v>
+        <v>1.215277205141289</v>
       </c>
       <c r="G10" t="n">
-        <v>-2.734290885425056</v>
+        <v>-2.697409868319914</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-7.041739299218788</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.1703190459578</v>
+        <v>-16.15658522027683</v>
       </c>
       <c r="F11" t="n">
-        <v>1.119297533008595</v>
+        <v>1.160682302291291</v>
       </c>
       <c r="G11" t="n">
-        <v>-2.293211202687305</v>
+        <v>-2.252232294792702</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-6.235558146955568</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.6443913318567</v>
+        <v>-16.6261930309067</v>
       </c>
       <c r="F12" t="n">
-        <v>1.149632398692874</v>
+        <v>1.189446091634563</v>
       </c>
       <c r="G12" t="n">
-        <v>-1.870853513013222</v>
+        <v>-1.828853405496965</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-5.511897187511919</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.44251120539116</v>
+        <v>-17.42223122828933</v>
       </c>
       <c r="F13" t="n">
-        <v>1.368116748515599</v>
+        <v>1.409409871678403</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.078782283391637</v>
+        <v>-1.038405621427754</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-4.892333433536156</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.2555563041652</v>
+        <v>-18.23535488088041</v>
       </c>
       <c r="F14" t="n">
-        <v>1.573404057073863</v>
+        <v>1.613387949952495</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.8754064510482639</v>
+        <v>-0.8392586029022582</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-4.372510591960823</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.09567628521592</v>
+        <v>-19.07730778432897</v>
       </c>
       <c r="F15" t="n">
-        <v>1.624097453677027</v>
+        <v>1.663243439173788</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.4422737961354404</v>
+        <v>-0.4068983938570965</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-3.963951775284759</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.08760151771645</v>
+        <v>-20.0728072155053</v>
       </c>
       <c r="F16" t="n">
-        <v>1.94732022623356</v>
+        <v>1.985811596588235</v>
       </c>
       <c r="G16" t="n">
-        <v>0.124400347762989</v>
+        <v>0.1618443338903256</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-3.658474770342313</v>
       </c>
       <c r="E17" t="n">
-        <v>-20.80151169937293</v>
+        <v>-20.78437387495311</v>
       </c>
       <c r="F17" t="n">
-        <v>2.012493709779672</v>
+        <v>2.047921481269383</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2286543552916537</v>
+        <v>0.2613589277902854</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-3.455441638707955</v>
       </c>
       <c r="E18" t="n">
-        <v>-21.71121727002742</v>
+        <v>-21.69339864585983</v>
       </c>
       <c r="F18" t="n">
-        <v>2.132340649992833</v>
+        <v>2.167585129242759</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7867006716173857</v>
+        <v>0.8217094894161612</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-3.339338478513767</v>
       </c>
       <c r="E19" t="n">
-        <v>-22.71572420555886</v>
+        <v>-22.70018364208573</v>
       </c>
       <c r="F19" t="n">
-        <v>2.231423197899015</v>
+        <v>2.267322292291028</v>
       </c>
       <c r="G19" t="n">
-        <v>1.008471189453384</v>
+        <v>1.03855730138367</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-3.297329608076609</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.07573634910064</v>
+        <v>-23.05766897117906</v>
       </c>
       <c r="F20" t="n">
-        <v>2.532389055624614</v>
+        <v>2.567790642508642</v>
       </c>
       <c r="G20" t="n">
-        <v>1.607025090771416</v>
+        <v>1.641981539358824</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-3.309602208563411</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.0278217040538</v>
+        <v>-24.01288338651139</v>
       </c>
       <c r="F21" t="n">
-        <v>2.661112577164465</v>
+        <v>2.692795950041442</v>
       </c>
       <c r="G21" t="n">
-        <v>1.717655049784001</v>
+        <v>1.748238669222273</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-3.35659676252919</v>
       </c>
       <c r="E22" t="n">
-        <v>-24.37051273093598</v>
+        <v>-24.35152889181548</v>
       </c>
       <c r="F22" t="n">
-        <v>2.742913285319569</v>
+        <v>2.776612872834173</v>
       </c>
       <c r="G22" t="n">
-        <v>1.986335288701903</v>
+        <v>2.01786155394478</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-3.418999725393542</v>
       </c>
       <c r="E23" t="n">
-        <v>-24.90717931672117</v>
+        <v>-24.88861443129161</v>
       </c>
       <c r="F23" t="n">
-        <v>2.682138815528277</v>
+        <v>2.712224927458564</v>
       </c>
       <c r="G23" t="n">
-        <v>2.527256872910658</v>
+        <v>2.562841752034469</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-3.478224683305984</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.43855661215831</v>
+        <v>-25.42466567884324</v>
       </c>
       <c r="F24" t="n">
-        <v>2.56739787342339</v>
+        <v>2.595651062955835</v>
       </c>
       <c r="G24" t="n">
-        <v>2.322283779620594</v>
+        <v>2.353836229469154</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-3.523423815097539</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.58364551225032</v>
+        <v>-25.56847153325676</v>
       </c>
       <c r="F25" t="n">
-        <v>2.692638842407341</v>
+        <v>2.718273571371441</v>
       </c>
       <c r="G25" t="n">
-        <v>2.232680058971821</v>
+        <v>2.262268663394122</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-3.544644092008368</v>
       </c>
       <c r="E26" t="n">
-        <v>-25.66086391441082</v>
+        <v>-25.64629218134798</v>
       </c>
       <c r="F26" t="n">
-        <v>2.856397366351651</v>
+        <v>2.883707910079492</v>
       </c>
       <c r="G26" t="n">
-        <v>2.234984304271965</v>
+        <v>2.263577893678295</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-3.544802684162064</v>
       </c>
       <c r="E27" t="n">
-        <v>-25.41747800458313</v>
+        <v>-25.40179342577875</v>
       </c>
       <c r="F27" t="n">
-        <v>2.558207076828498</v>
+        <v>2.583370482890296</v>
       </c>
       <c r="G27" t="n">
-        <v>1.950986071029243</v>
+        <v>1.974133262453415</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-3.525516131554468</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.51068210851338</v>
+        <v>-25.49734105191766</v>
       </c>
       <c r="F28" t="n">
-        <v>2.824164116755322</v>
+        <v>2.849903584142155</v>
       </c>
       <c r="G28" t="n">
-        <v>1.901994673795504</v>
+        <v>1.927262818280036</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-3.501593741754797</v>
       </c>
       <c r="E29" t="n">
-        <v>-25.72210970710441</v>
+        <v>-25.71280107978395</v>
       </c>
       <c r="F29" t="n">
-        <v>2.657656209214249</v>
+        <v>2.678577709155328</v>
       </c>
       <c r="G29" t="n">
-        <v>1.801760003239249</v>
+        <v>1.827578024443133</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-3.48146164034074</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.37965434167338</v>
+        <v>-25.36479457794803</v>
       </c>
       <c r="F30" t="n">
-        <v>2.627727204918064</v>
+        <v>2.651607565301372</v>
       </c>
       <c r="G30" t="n">
-        <v>1.929279032917661</v>
+        <v>1.960255421441185</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-3.485505847769493</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.6156661016473</v>
+        <v>-24.59807004662802</v>
       </c>
       <c r="F31" t="n">
-        <v>2.540846683260369</v>
+        <v>2.563653474810656</v>
       </c>
       <c r="G31" t="n">
-        <v>1.398909844799338</v>
+        <v>1.429729125688761</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-3.523306356169297</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.73692701056737</v>
+        <v>-24.72268258507557</v>
       </c>
       <c r="F32" t="n">
-        <v>2.521051121363679</v>
+        <v>2.5438055437026</v>
       </c>
       <c r="G32" t="n">
-        <v>1.499903868920413</v>
+        <v>1.536562316877246</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-3.615685525099791</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.16822355972847</v>
+        <v>-24.15222476565588</v>
       </c>
       <c r="F33" t="n">
-        <v>2.57483430143749</v>
+        <v>2.598924138666266</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7417024267503731</v>
+        <v>0.7739225840438609</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-3.768529848325235</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.52450121360648</v>
+        <v>-23.50830603499127</v>
       </c>
       <c r="F34" t="n">
-        <v>2.550901571842815</v>
+        <v>2.5768767006808</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6736748211847645</v>
+        <v>0.7060128092038279</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-3.997870981522823</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.89189423259712</v>
+        <v>-22.8712083941072</v>
       </c>
       <c r="F35" t="n">
-        <v>2.425791525887281</v>
+        <v>2.452133239204834</v>
       </c>
       <c r="G35" t="n">
-        <v>0.7252846789868487</v>
+        <v>0.7594948663122789</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-4.30160013928435</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.08790900738957</v>
+        <v>-22.0681527224014</v>
       </c>
       <c r="F36" t="n">
-        <v>2.282116594502179</v>
+        <v>2.306651570027574</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7390577815763445</v>
+        <v>0.7772742135713429</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-4.687842036403789</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.14458240303752</v>
+        <v>-21.1207936887741</v>
       </c>
       <c r="F37" t="n">
-        <v>2.323409717664983</v>
+        <v>2.348232723852896</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6784011425106276</v>
+        <v>0.7145228060509499</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-5.146715264726055</v>
       </c>
       <c r="E38" t="n">
-        <v>-21.01258580578724</v>
+        <v>-20.99489810464807</v>
       </c>
       <c r="F38" t="n">
-        <v>2.152136211889522</v>
+        <v>2.177928048487723</v>
       </c>
       <c r="G38" t="n">
-        <v>0.3861416661747766</v>
+        <v>0.4208886379167175</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-5.679296336935271</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.1611017058699</v>
+        <v>-20.13956486769526</v>
       </c>
       <c r="F39" t="n">
-        <v>2.392013384555627</v>
+        <v>2.418695497747065</v>
       </c>
       <c r="G39" t="n">
-        <v>0.222762819012877</v>
+        <v>0.2554935761171921</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-6.269048368137286</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.64334040538816</v>
+        <v>-19.62231416702435</v>
       </c>
       <c r="F40" t="n">
-        <v>2.228333414428368</v>
+        <v>2.255539219733475</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.09547178616095857</v>
+        <v>-0.06503218205394547</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-6.909312055608246</v>
       </c>
       <c r="E41" t="n">
-        <v>-18.69731678665072</v>
+        <v>-18.66933853547795</v>
       </c>
       <c r="F41" t="n">
-        <v>2.448572132831884</v>
+        <v>2.475175692206272</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.161456992483258</v>
+        <v>-0.1301532963886909</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-7.577109876158208</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.42117393511303</v>
+        <v>-18.40037026589753</v>
       </c>
       <c r="F42" t="n">
-        <v>2.459543482613251</v>
+        <v>2.483214366151091</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.4073304398508735</v>
+        <v>-0.3764064205387165</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-8.258720606091417</v>
       </c>
       <c r="E43" t="n">
-        <v>-17.5067813200412</v>
+        <v>-17.48038723751228</v>
       </c>
       <c r="F43" t="n">
-        <v>2.80693464621561</v>
+        <v>2.833302544138846</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.4090455315231396</v>
+        <v>-0.3796925885519898</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-8.927052860420346</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.05696907130801</v>
+        <v>-17.03176638833769</v>
       </c>
       <c r="F44" t="n">
-        <v>2.742599070051368</v>
+        <v>2.767474445450647</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.7361959949321907</v>
+        <v>-0.7066859443269401</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-9.564831825284058</v>
       </c>
       <c r="E45" t="n">
-        <v>-16.33071284807179</v>
+        <v>-16.30327138131553</v>
       </c>
       <c r="F45" t="n">
-        <v>2.692743580830075</v>
+        <v>2.715550372380362</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.781534639673088</v>
+        <v>-0.7521162351877295</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-10.14632681500494</v>
       </c>
       <c r="E46" t="n">
-        <v>-15.85637871611605</v>
+        <v>-15.82955258759335</v>
       </c>
       <c r="F46" t="n">
-        <v>2.85396219802309</v>
+        <v>2.880094434495175</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.9427794414717863</v>
+        <v>-0.915115405567219</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-10.65798452535444</v>
       </c>
       <c r="E47" t="n">
-        <v>-15.12849904732745</v>
+        <v>-15.09761430492382</v>
       </c>
       <c r="F47" t="n">
-        <v>2.829715253160213</v>
+        <v>2.85540235133568</v>
       </c>
       <c r="G47" t="n">
-        <v>-1.27563814891983</v>
+        <v>-1.247057651816342</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-11.08413755884954</v>
       </c>
       <c r="E48" t="n">
-        <v>-14.47798179603061</v>
+        <v>-14.44624605394226</v>
       </c>
       <c r="F48" t="n">
-        <v>2.695335856792737</v>
+        <v>2.720630185882952</v>
       </c>
       <c r="G48" t="n">
-        <v>-1.313278519589792</v>
+        <v>-1.285732314410801</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-11.42050324729815</v>
       </c>
       <c r="E49" t="n">
-        <v>-13.87352326613095</v>
+        <v>-13.83914287886858</v>
       </c>
       <c r="F49" t="n">
-        <v>3.085905435167109</v>
+        <v>3.115886808674662</v>
       </c>
       <c r="G49" t="n">
-        <v>-1.502501572561259</v>
+        <v>-1.473358106435577</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-11.66291036645946</v>
       </c>
       <c r="E50" t="n">
-        <v>-13.27746999465569</v>
+        <v>-13.24281466903364</v>
       </c>
       <c r="F50" t="n">
-        <v>3.14052652262279</v>
+        <v>3.170403157707609</v>
       </c>
       <c r="G50" t="n">
-        <v>-1.464691001954354</v>
+        <v>-1.432405383146658</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-11.81601814346429</v>
       </c>
       <c r="E51" t="n">
-        <v>-12.42122029650397</v>
+        <v>-12.38808367801156</v>
       </c>
       <c r="F51" t="n">
-        <v>3.124475359338834</v>
+        <v>3.157049008809048</v>
       </c>
       <c r="G51" t="n">
-        <v>-1.477220335773886</v>
+        <v>-1.442447179426262</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-11.88633939565426</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.38893467769627</v>
+        <v>-12.36348324097195</v>
       </c>
       <c r="F52" t="n">
-        <v>3.08538174305344</v>
+        <v>3.118819484511208</v>
       </c>
       <c r="G52" t="n">
-        <v>-1.575059114910105</v>
+        <v>-1.538191190107804</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-11.8835319936244</v>
       </c>
       <c r="E53" t="n">
-        <v>-11.5943890028376</v>
+        <v>-11.56413269097037</v>
       </c>
       <c r="F53" t="n">
-        <v>3.357649272949975</v>
+        <v>3.392605721537384</v>
       </c>
       <c r="G53" t="n">
-        <v>-1.718851877020782</v>
+        <v>-1.683594305468014</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-11.81919141941489</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.35525809143347</v>
+        <v>-11.32659904051293</v>
       </c>
       <c r="F54" t="n">
-        <v>3.017458875910565</v>
+        <v>3.050399109860348</v>
       </c>
       <c r="G54" t="n">
-        <v>-1.788450558927398</v>
+        <v>-1.750679265229018</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-11.70245277594722</v>
       </c>
       <c r="E55" t="n">
-        <v>-10.77644738280076</v>
+        <v>-10.74802399333137</v>
       </c>
       <c r="F55" t="n">
-        <v>2.898371289262225</v>
+        <v>2.932646938101864</v>
       </c>
       <c r="G55" t="n">
-        <v>-2.179556921718281</v>
+        <v>-2.139127890543031</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-11.54606851199688</v>
       </c>
       <c r="E56" t="n">
-        <v>-10.2253268946783</v>
+        <v>-10.19410175240079</v>
       </c>
       <c r="F56" t="n">
-        <v>3.116515239211064</v>
+        <v>3.15372356388725</v>
       </c>
       <c r="G56" t="n">
-        <v>-2.451261482592622</v>
+        <v>-2.41339854277435</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-11.35534683346659</v>
       </c>
       <c r="E57" t="n">
-        <v>-9.622792933296385</v>
+        <v>-9.595744235625379</v>
       </c>
       <c r="F57" t="n">
-        <v>3.135027755429265</v>
+        <v>3.175613894238616</v>
       </c>
       <c r="G57" t="n">
-        <v>-2.93244288893458</v>
+        <v>-2.897761378706848</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-11.14195414000945</v>
       </c>
       <c r="E58" t="n">
-        <v>-9.487680367969773</v>
+        <v>-9.463250130867111</v>
       </c>
       <c r="F58" t="n">
-        <v>3.094546355042648</v>
+        <v>3.135944216628186</v>
       </c>
       <c r="G58" t="n">
-        <v>-2.760959906313652</v>
+        <v>-2.721971028450992</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-10.9061403734552</v>
       </c>
       <c r="E59" t="n">
-        <v>-8.889741804885301</v>
+        <v>-8.865795982987784</v>
       </c>
       <c r="F59" t="n">
-        <v>3.197478039984299</v>
+        <v>3.240054208825592</v>
       </c>
       <c r="G59" t="n">
-        <v>-3.126143509477918</v>
+        <v>-3.089380323098351</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-10.65912827375257</v>
       </c>
       <c r="E60" t="n">
-        <v>-8.774595001392321</v>
+        <v>-8.752770132555163</v>
       </c>
       <c r="F60" t="n">
-        <v>2.996668298997904</v>
+        <v>3.037699576103874</v>
       </c>
       <c r="G60" t="n">
-        <v>-2.844750644500699</v>
+        <v>-2.80417759799419</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-10.39763341239234</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.334327041430756</v>
+        <v>-8.315317017704571</v>
       </c>
       <c r="F61" t="n">
-        <v>3.059799383300707</v>
+        <v>3.101406721731713</v>
       </c>
       <c r="G61" t="n">
-        <v>-3.305102197021471</v>
+        <v>-3.264830273480322</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-10.13206246406524</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.960293041545484</v>
+        <v>-7.943377786273974</v>
       </c>
       <c r="F62" t="n">
-        <v>2.873810129131147</v>
+        <v>2.913087037656325</v>
       </c>
       <c r="G62" t="n">
-        <v>-3.421257107833265</v>
+        <v>-3.384795044419058</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-9.856309918632075</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.769459635324485</v>
+        <v>-7.754233287119558</v>
       </c>
       <c r="F63" t="n">
-        <v>3.155268455622574</v>
+        <v>3.198813454874155</v>
       </c>
       <c r="G63" t="n">
-        <v>-3.401592468964992</v>
+        <v>-3.363794990660929</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-9.577850761293435</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.503005087889676</v>
+        <v>-7.490947076972446</v>
       </c>
       <c r="F64" t="n">
-        <v>3.012693277676177</v>
+        <v>3.05587169244819</v>
       </c>
       <c r="G64" t="n">
-        <v>-3.729318993699079</v>
+        <v>-3.692595084228038</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-9.286906522210206</v>
       </c>
       <c r="E65" t="n">
-        <v>-7.21776308587699</v>
+        <v>-7.20600619792512</v>
       </c>
       <c r="F65" t="n">
-        <v>3.110754625960705</v>
+        <v>3.155975439976027</v>
       </c>
       <c r="G65" t="n">
-        <v>-3.766605872192315</v>
+        <v>-3.72947610133318</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-8.988233899516343</v>
       </c>
       <c r="E66" t="n">
-        <v>-7.002839842427215</v>
+        <v>-6.991567369680489</v>
       </c>
       <c r="F66" t="n">
-        <v>2.960612096971791</v>
+        <v>3.00376432713812</v>
       </c>
       <c r="G66" t="n">
-        <v>-3.819302391130262</v>
+        <v>-3.782892696927422</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-8.670549197148365</v>
       </c>
       <c r="E67" t="n">
-        <v>-7.096109407871672</v>
+        <v>-7.088790810583147</v>
       </c>
       <c r="F67" t="n">
-        <v>2.959407605110352</v>
+        <v>3.004183280829055</v>
       </c>
       <c r="G67" t="n">
-        <v>-3.705045864230519</v>
+        <v>-3.670102507945952</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-8.338369440154469</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.787772583646181</v>
+        <v>-6.779301863707584</v>
       </c>
       <c r="F68" t="n">
-        <v>2.926153155892368</v>
+        <v>2.970248031863301</v>
       </c>
       <c r="G68" t="n">
-        <v>-3.680720365550592</v>
+        <v>-3.646130501442752</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-7.981278197580787</v>
       </c>
       <c r="E69" t="n">
-        <v>-6.959229381661426</v>
+        <v>-6.954607798758296</v>
       </c>
       <c r="F69" t="n">
-        <v>2.687716136538853</v>
+        <v>2.729742428660793</v>
       </c>
       <c r="G69" t="n">
-        <v>-3.722825211489583</v>
+        <v>-3.687711655268074</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-7.606033903866204</v>
       </c>
       <c r="E70" t="n">
-        <v>-6.71229545776363</v>
+        <v>-6.706561029118954</v>
       </c>
       <c r="F70" t="n">
-        <v>2.750585374784821</v>
+        <v>2.79457551233302</v>
       </c>
       <c r="G70" t="n">
-        <v>-3.528221222050167</v>
+        <v>-3.493814650182111</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-7.205463561569374</v>
       </c>
       <c r="E71" t="n">
-        <v>-6.63007579591759</v>
+        <v>-6.627051473961152</v>
       </c>
       <c r="F71" t="n">
-        <v>2.659881900697343</v>
+        <v>2.700468039506694</v>
       </c>
       <c r="G71" t="n">
-        <v>-3.520287286528081</v>
+        <v>-3.485828345448658</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-6.790563734114732</v>
       </c>
       <c r="E72" t="n">
-        <v>-6.800223363648662</v>
+        <v>-6.798023856771252</v>
       </c>
       <c r="F72" t="n">
-        <v>2.804132893407481</v>
+        <v>2.848384877012515</v>
       </c>
       <c r="G72" t="n">
-        <v>-3.392742072243986</v>
+        <v>-3.362092991291505</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-6.358690733936554</v>
       </c>
       <c r="E73" t="n">
-        <v>-6.946058525002649</v>
+        <v>-6.944055402667865</v>
       </c>
       <c r="F73" t="n">
-        <v>2.563627290204973</v>
+        <v>2.603532629266554</v>
       </c>
       <c r="G73" t="n">
-        <v>-3.309828518347334</v>
+        <v>-3.281627698026256</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-5.92428379644131</v>
       </c>
       <c r="E74" t="n">
-        <v>-7.218417701019076</v>
+        <v>-7.216139640324616</v>
       </c>
       <c r="F74" t="n">
-        <v>2.696173764174608</v>
+        <v>2.737309779703311</v>
       </c>
       <c r="G74" t="n">
-        <v>-3.277425068814062</v>
+        <v>-3.250284725023164</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-5.487373632314026</v>
       </c>
       <c r="E75" t="n">
-        <v>-7.38736077688871</v>
+        <v>-7.385658777519285</v>
       </c>
       <c r="F75" t="n">
-        <v>2.251402052035489</v>
+        <v>2.290757514377718</v>
       </c>
       <c r="G75" t="n">
-        <v>-3.013340228193606</v>
+        <v>-2.985217961689578</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-5.063925643538508</v>
       </c>
       <c r="E76" t="n">
-        <v>-7.824237830414266</v>
+        <v>-7.822457277227792</v>
       </c>
       <c r="F76" t="n">
-        <v>2.497092207163321</v>
+        <v>2.538463884143175</v>
       </c>
       <c r="G76" t="n">
-        <v>-2.938714101995767</v>
+        <v>-2.911757050444653</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-4.654728814711597</v>
       </c>
       <c r="E77" t="n">
-        <v>-8.147041649279865</v>
+        <v>-8.143192512244397</v>
       </c>
       <c r="F77" t="n">
-        <v>2.347080601202824</v>
+        <v>2.385362494712031</v>
       </c>
       <c r="G77" t="n">
-        <v>-2.810448811055377</v>
+        <v>-2.783910713195198</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-4.275045807207606</v>
       </c>
       <c r="E78" t="n">
-        <v>-8.500795672063303</v>
+        <v>-8.494066228402655</v>
       </c>
       <c r="F78" t="n">
-        <v>2.243834700992972</v>
+        <v>2.281776194628294</v>
       </c>
       <c r="G78" t="n">
-        <v>-2.645001380044484</v>
+        <v>-2.620675881364558</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-3.924089840685945</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.962927777770549</v>
+        <v>-8.953579873541557</v>
       </c>
       <c r="F79" t="n">
-        <v>2.352736476030449</v>
+        <v>2.392144307584045</v>
       </c>
       <c r="G79" t="n">
-        <v>-2.360322347053993</v>
+        <v>-2.334805448815469</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-3.613266869280757</v>
       </c>
       <c r="E80" t="n">
-        <v>-9.362949998796648</v>
+        <v>-9.35106218781636</v>
       </c>
       <c r="F80" t="n">
-        <v>2.065910305373915</v>
+        <v>2.1031186300501</v>
       </c>
       <c r="G80" t="n">
-        <v>-1.81227855009934</v>
+        <v>-1.783750422207218</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-3.338908095612957</v>
       </c>
       <c r="E81" t="n">
-        <v>-10.0053107454231</v>
+        <v>-9.990424797092054</v>
       </c>
       <c r="F81" t="n">
-        <v>2.209428129124916</v>
+        <v>2.246688823012468</v>
       </c>
       <c r="G81" t="n">
-        <v>-1.914162850813652</v>
+        <v>-1.887323629988114</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-3.10759780704654</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.66247888656354</v>
+        <v>-10.64625752334264</v>
       </c>
       <c r="F82" t="n">
-        <v>2.188166229309953</v>
+        <v>2.226238645973692</v>
       </c>
       <c r="G82" t="n">
-        <v>-1.6897084108951</v>
+        <v>-1.661049359974562</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-2.913707927045588</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.26386072529538</v>
+        <v>-11.24707639305229</v>
       </c>
       <c r="F83" t="n">
-        <v>1.874160437953995</v>
+        <v>1.907676733228813</v>
       </c>
       <c r="G83" t="n">
-        <v>-1.288494790310405</v>
+        <v>-1.257754063238032</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-2.758965767493931</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.15188544244398</v>
+        <v>-12.12894772786527</v>
       </c>
       <c r="F84" t="n">
-        <v>1.930274047933632</v>
+        <v>1.966723019044998</v>
       </c>
       <c r="G84" t="n">
-        <v>-1.140617229713109</v>
+        <v>-1.11104171759365</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-2.637538744900306</v>
       </c>
       <c r="E85" t="n">
-        <v>-12.7864562688796</v>
+        <v>-12.75991817101942</v>
       </c>
       <c r="F85" t="n">
-        <v>1.851720230883276</v>
+        <v>1.887593140669606</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.8379362803152439</v>
+        <v>-0.8096830907827991</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-2.548623684037032</v>
       </c>
       <c r="E86" t="n">
-        <v>-13.58431429635723</v>
+        <v>-13.55488279956903</v>
       </c>
       <c r="F86" t="n">
-        <v>1.816240090182198</v>
+        <v>1.853998291577736</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.6300043265829505</v>
+        <v>-0.604029197744966</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-2.487966231992901</v>
       </c>
       <c r="E87" t="n">
-        <v>-14.41081828245255</v>
+        <v>-14.37926583260399</v>
       </c>
       <c r="F87" t="n">
-        <v>1.831217684633133</v>
+        <v>1.870285116312844</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.2390027022148015</v>
+        <v>-0.2133679732507018</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-2.453458565773627</v>
       </c>
       <c r="E88" t="n">
-        <v>-15.60619790111351</v>
+        <v>-15.57281252886711</v>
       </c>
       <c r="F88" t="n">
-        <v>1.853631707098168</v>
+        <v>1.891049508619821</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0383577334871653</v>
+        <v>0.06405792396547358</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-2.442797410903872</v>
       </c>
       <c r="E89" t="n">
-        <v>-16.55011365909343</v>
+        <v>-16.5084670437539</v>
       </c>
       <c r="F89" t="n">
-        <v>1.59689164837192</v>
+        <v>1.632450342890048</v>
       </c>
       <c r="G89" t="n">
-        <v>0.2239934954799992</v>
+        <v>0.2482666249485594</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-2.45301790480962</v>
       </c>
       <c r="E90" t="n">
-        <v>-17.9518934320542</v>
+        <v>-17.90783783299179</v>
       </c>
       <c r="F90" t="n">
-        <v>1.556226955745519</v>
+        <v>1.592466450011417</v>
       </c>
       <c r="G90" t="n">
-        <v>0.6838868174013109</v>
+        <v>0.7081468545670292</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-2.484206522400592</v>
       </c>
       <c r="E91" t="n">
-        <v>-19.10563952767847</v>
+        <v>-19.05375473151671</v>
       </c>
       <c r="F91" t="n">
-        <v>1.248793500416107</v>
+        <v>1.282440718719343</v>
       </c>
       <c r="G91" t="n">
-        <v>0.6544945975216357</v>
+        <v>0.6778512657912751</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-2.533369831825172</v>
       </c>
       <c r="E92" t="n">
-        <v>-20.3909370822564</v>
+        <v>-20.33449616470572</v>
       </c>
       <c r="F92" t="n">
-        <v>1.041647084854317</v>
+        <v>1.072610381075</v>
       </c>
       <c r="G92" t="n">
-        <v>1.149370552636039</v>
+        <v>1.177388080717333</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-2.603097018847209</v>
       </c>
       <c r="E93" t="n">
-        <v>-21.98732084465658</v>
+        <v>-21.92562991366637</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9019522135331002</v>
+        <v>0.9333868326560845</v>
       </c>
       <c r="G93" t="n">
-        <v>1.147747107083665</v>
+        <v>1.174416127972261</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-2.690702882125577</v>
       </c>
       <c r="E94" t="n">
-        <v>-23.62375396144961</v>
+        <v>-23.55463969474814</v>
       </c>
       <c r="F94" t="n">
-        <v>1.005394498285578</v>
+        <v>1.036907671225612</v>
       </c>
       <c r="G94" t="n">
-        <v>1.307604124781141</v>
+        <v>1.337794975134161</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-2.799583928228166</v>
       </c>
       <c r="E95" t="n">
-        <v>-25.30030189414968</v>
+        <v>-25.22151241564817</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2856189649560038</v>
+        <v>0.3131782624378372</v>
       </c>
       <c r="G95" t="n">
-        <v>1.281890841999991</v>
+        <v>1.315092922006608</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-2.930685962915398</v>
       </c>
       <c r="E96" t="n">
-        <v>-27.06922911570097</v>
+        <v>-26.98693090003789</v>
       </c>
       <c r="F96" t="n">
-        <v>0.4469946897831193</v>
+        <v>0.4802491390011036</v>
       </c>
       <c r="G96" t="n">
-        <v>0.9913464573364058</v>
+        <v>1.023514245418527</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-3.084306139942971</v>
       </c>
       <c r="E97" t="n">
-        <v>-28.985418559616</v>
+        <v>-28.89708479234288</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.1750991720443365</v>
+        <v>-0.1487705510296254</v>
       </c>
       <c r="G97" t="n">
-        <v>1.164898023806327</v>
+        <v>1.199566441731217</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-3.267338235171396</v>
       </c>
       <c r="E98" t="n">
-        <v>-31.21565307179551</v>
+        <v>-31.12309049070451</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.4507576083768789</v>
+        <v>-0.4198728659732471</v>
       </c>
       <c r="G98" t="n">
-        <v>1.035663902455649</v>
+        <v>1.074377841958633</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-3.469554191584861</v>
       </c>
       <c r="E99" t="n">
-        <v>-33.39861127841355</v>
+        <v>-33.29892648457665</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.4223604035131751</v>
+        <v>-0.3930729220562338</v>
       </c>
       <c r="G99" t="n">
-        <v>0.6552146741779308</v>
+        <v>0.6960757513469578</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-3.709593204906795</v>
       </c>
       <c r="E100" t="n">
-        <v>-35.37414813111013</v>
+        <v>-35.26685670932218</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.4938574693318411</v>
+        <v>-0.4633262191049359</v>
       </c>
       <c r="G100" t="n">
-        <v>0.4610820076408166</v>
+        <v>0.5048757606463903</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-3.952316311423199</v>
       </c>
       <c r="E101" t="n">
-        <v>-37.20047200831954</v>
+        <v>-37.08133205245984</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.8489992762165024</v>
+        <v>-0.8218458401227625</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1049898903268934</v>
+        <v>-0.06504527435678718</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-4.252874308576699</v>
       </c>
       <c r="E102" t="n">
-        <v>-39.50686444612937</v>
+        <v>-39.38462161449618</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.7593562786592041</v>
+        <v>-0.7291785206090254</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.6412244301183098</v>
+        <v>-0.6012798141482035</v>
       </c>
     </row>
   </sheetData>
